--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F13a1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F13a1-Itga9.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4914656666666666</v>
+        <v>0.150245</v>
       </c>
       <c r="H2">
-        <v>1.474397</v>
+        <v>0.450735</v>
       </c>
       <c r="I2">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="J2">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N2">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O2">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P2">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q2">
-        <v>2.003456186085111</v>
+        <v>0.8795916736716667</v>
       </c>
       <c r="R2">
-        <v>18.031105674766</v>
+        <v>7.916325063045</v>
       </c>
       <c r="S2">
-        <v>0.0003679924561459039</v>
+        <v>0.0002145463311371989</v>
       </c>
       <c r="T2">
-        <v>0.0003679924561459039</v>
+        <v>0.0002145463311371989</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4914656666666666</v>
+        <v>0.150245</v>
       </c>
       <c r="H3">
-        <v>1.474397</v>
+        <v>0.450735</v>
       </c>
       <c r="I3">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="J3">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>12.265592</v>
       </c>
       <c r="O3">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P3">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q3">
-        <v>2.009372449780444</v>
+        <v>0.6142812900133332</v>
       </c>
       <c r="R3">
-        <v>18.084352048024</v>
+        <v>5.52853161012</v>
       </c>
       <c r="S3">
-        <v>0.0003690791484447291</v>
+        <v>0.0001498329293050828</v>
       </c>
       <c r="T3">
-        <v>0.0003690791484447291</v>
+        <v>0.0001498329293050829</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.4914656666666666</v>
+        <v>0.150245</v>
       </c>
       <c r="H4">
-        <v>1.474397</v>
+        <v>0.450735</v>
       </c>
       <c r="I4">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="J4">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N4">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O4">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P4">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q4">
-        <v>1.420050562758111</v>
+        <v>1.749366940023333</v>
       </c>
       <c r="R4">
-        <v>12.780455064823</v>
+        <v>15.74430246021</v>
       </c>
       <c r="S4">
-        <v>0.0002608332031766881</v>
+        <v>0.0004266982851577261</v>
       </c>
       <c r="T4">
-        <v>0.0002608332031766881</v>
+        <v>0.0004266982851577261</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.4914656666666666</v>
+        <v>0.150245</v>
       </c>
       <c r="H5">
-        <v>1.474397</v>
+        <v>0.450735</v>
       </c>
       <c r="I5">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="J5">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N5">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O5">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P5">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q5">
-        <v>0.07248217562944445</v>
+        <v>0.02472096172833333</v>
       </c>
       <c r="R5">
-        <v>0.652339580665</v>
+        <v>0.222488655555</v>
       </c>
       <c r="S5">
-        <v>1.331344005520713E-05</v>
+        <v>6.029833841943369E-06</v>
       </c>
       <c r="T5">
-        <v>1.331344005520714E-05</v>
+        <v>6.029833841943369E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4914656666666666</v>
+        <v>0.150245</v>
       </c>
       <c r="H6">
-        <v>1.474397</v>
+        <v>0.450735</v>
       </c>
       <c r="I6">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="J6">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N6">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O6">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P6">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q6">
-        <v>2.183841123228222</v>
+        <v>1.815057609821666</v>
       </c>
       <c r="R6">
-        <v>19.654570109054</v>
+        <v>16.335518488395</v>
       </c>
       <c r="S6">
-        <v>0.0004011253474624489</v>
+        <v>0.0004427212792549151</v>
       </c>
       <c r="T6">
-        <v>0.000401125347462449</v>
+        <v>0.0004427212792549151</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>0.02255533333333333</v>
       </c>
       <c r="H7">
-        <v>0.06766599999999999</v>
+        <v>0.067666</v>
       </c>
       <c r="I7">
-        <v>6.481812003046211E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="J7">
-        <v>6.481812003046212E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N7">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O7">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P7">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q7">
-        <v>0.09194665092755555</v>
+        <v>0.1320475449891111</v>
       </c>
       <c r="R7">
-        <v>0.8275198583479999</v>
+        <v>1.188427904902</v>
       </c>
       <c r="S7">
-        <v>1.688865179294907E-05</v>
+        <v>3.220848623410586E-05</v>
       </c>
       <c r="T7">
-        <v>1.688865179294907E-05</v>
+        <v>3.220848623410586E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>0.02255533333333333</v>
       </c>
       <c r="H8">
-        <v>0.06766599999999999</v>
+        <v>0.067666</v>
       </c>
       <c r="I8">
-        <v>6.481812003046211E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="J8">
-        <v>6.481812003046212E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>12.265592</v>
       </c>
       <c r="O8">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P8">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q8">
-        <v>0.0922181720302222</v>
+        <v>0.09221817203022221</v>
       </c>
       <c r="R8">
-        <v>0.8299635482719999</v>
+        <v>0.829963548272</v>
       </c>
       <c r="S8">
-        <v>1.693852446706079E-05</v>
+        <v>2.249347176136252E-05</v>
       </c>
       <c r="T8">
-        <v>1.69385244670608E-05</v>
+        <v>2.249347176136253E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>0.02255533333333333</v>
       </c>
       <c r="H9">
-        <v>0.06766599999999999</v>
+        <v>0.067666</v>
       </c>
       <c r="I9">
-        <v>6.481812003046211E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="J9">
-        <v>6.481812003046212E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N9">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O9">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P9">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q9">
-        <v>0.06517182372155556</v>
+        <v>0.2626214147195555</v>
       </c>
       <c r="R9">
-        <v>0.5865464134939999</v>
+        <v>2.363592732476</v>
       </c>
       <c r="S9">
-        <v>1.197068328689883E-05</v>
+        <v>6.405751974770696E-05</v>
       </c>
       <c r="T9">
-        <v>1.197068328689883E-05</v>
+        <v>6.405751974770696E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>0.02255533333333333</v>
       </c>
       <c r="H10">
-        <v>0.06766599999999999</v>
+        <v>0.067666</v>
       </c>
       <c r="I10">
-        <v>6.481812003046211E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="J10">
-        <v>6.481812003046212E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N10">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O10">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P10">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q10">
-        <v>0.003326498152222222</v>
+        <v>0.003711201917555556</v>
       </c>
       <c r="R10">
-        <v>0.02993848337</v>
+        <v>0.033400817258</v>
       </c>
       <c r="S10">
-        <v>6.110072353481769E-07</v>
+        <v>9.052208875479829E-07</v>
       </c>
       <c r="T10">
-        <v>6.11007235348177E-07</v>
+        <v>9.052208875479829E-07</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>0.02255533333333333</v>
       </c>
       <c r="H11">
-        <v>0.06766599999999999</v>
+        <v>0.067666</v>
       </c>
       <c r="I11">
-        <v>6.481812003046211E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="J11">
-        <v>6.481812003046212E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N11">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O11">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P11">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q11">
-        <v>0.1002252401791111</v>
+        <v>0.2724831402624445</v>
       </c>
       <c r="R11">
-        <v>0.9020271616119998</v>
+        <v>2.452348262362</v>
       </c>
       <c r="S11">
-        <v>1.840925324820524E-05</v>
+        <v>6.646295069622525E-05</v>
       </c>
       <c r="T11">
-        <v>1.840925324820525E-05</v>
+        <v>6.646295069622525E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>142.6799063333333</v>
+        <v>72.99378066666667</v>
       </c>
       <c r="H12">
-        <v>428.039719</v>
+        <v>218.981342</v>
       </c>
       <c r="I12">
-        <v>0.410024678331027</v>
+        <v>0.6023480393834509</v>
       </c>
       <c r="J12">
-        <v>0.4100246783310271</v>
+        <v>0.6023480393834508</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N12">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O12">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P12">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q12">
-        <v>581.6335918485202</v>
+        <v>427.3334999781416</v>
       </c>
       <c r="R12">
-        <v>5234.702326636682</v>
+        <v>3846.001499803274</v>
       </c>
       <c r="S12">
-        <v>0.1068337683288914</v>
+        <v>0.1042334043586591</v>
       </c>
       <c r="T12">
-        <v>0.1068337683288914</v>
+        <v>0.1042334043586591</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>142.6799063333333</v>
+        <v>72.99378066666667</v>
       </c>
       <c r="H13">
-        <v>428.039719</v>
+        <v>218.981342</v>
       </c>
       <c r="I13">
-        <v>0.410024678331027</v>
+        <v>0.6023480393834509</v>
       </c>
       <c r="J13">
-        <v>0.4100246783310271</v>
+        <v>0.6023480393834508</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>12.265592</v>
       </c>
       <c r="O13">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P13">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q13">
-        <v>583.3511725609608</v>
+        <v>298.4373107316071</v>
       </c>
       <c r="R13">
-        <v>5250.160553048648</v>
+        <v>2685.935796584464</v>
       </c>
       <c r="S13">
-        <v>0.1071492515170888</v>
+        <v>0.07279358366893666</v>
       </c>
       <c r="T13">
-        <v>0.1071492515170888</v>
+        <v>0.07279358366893666</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>142.6799063333333</v>
+        <v>72.99378066666667</v>
       </c>
       <c r="H14">
-        <v>428.039719</v>
+        <v>218.981342</v>
       </c>
       <c r="I14">
-        <v>0.410024678331027</v>
+        <v>0.6023480393834509</v>
       </c>
       <c r="J14">
-        <v>0.4100246783310271</v>
+        <v>0.6023480393834508</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N14">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O14">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P14">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q14">
-        <v>412.2621273976912</v>
+        <v>849.8978783026456</v>
       </c>
       <c r="R14">
-        <v>3710.359146579221</v>
+        <v>7649.080904723811</v>
       </c>
       <c r="S14">
-        <v>0.07572381861440268</v>
+        <v>0.2073035444616849</v>
       </c>
       <c r="T14">
-        <v>0.07572381861440269</v>
+        <v>0.2073035444616849</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>142.6799063333333</v>
+        <v>72.99378066666667</v>
       </c>
       <c r="H15">
-        <v>428.039719</v>
+        <v>218.981342</v>
       </c>
       <c r="I15">
-        <v>0.410024678331027</v>
+        <v>0.6023480393834509</v>
       </c>
       <c r="J15">
-        <v>0.4100246783310271</v>
+        <v>0.6023480393834508</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N15">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O15">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P15">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q15">
-        <v>21.04267038588389</v>
+        <v>12.01022635207178</v>
       </c>
       <c r="R15">
-        <v>189.384033472955</v>
+        <v>108.092037168646</v>
       </c>
       <c r="S15">
-        <v>0.003865092739712714</v>
+        <v>0.00292948430174221</v>
       </c>
       <c r="T15">
-        <v>0.003865092739712715</v>
+        <v>0.002929484301742209</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>142.6799063333333</v>
+        <v>72.99378066666667</v>
       </c>
       <c r="H16">
-        <v>428.039719</v>
+        <v>218.981342</v>
       </c>
       <c r="I16">
-        <v>0.410024678331027</v>
+        <v>0.6023480393834509</v>
       </c>
       <c r="J16">
-        <v>0.4100246783310271</v>
+        <v>0.6023480393834508</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N16">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O16">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P16">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q16">
-        <v>634.0020637096063</v>
+        <v>881.8124867295882</v>
       </c>
       <c r="R16">
-        <v>5706.018573386457</v>
+        <v>7936.312380566294</v>
       </c>
       <c r="S16">
-        <v>0.1164527471309315</v>
+        <v>0.2150880225924281</v>
       </c>
       <c r="T16">
-        <v>0.1164527471309315</v>
+        <v>0.215088022592428</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1992056666666666</v>
+        <v>0.135492</v>
       </c>
       <c r="H17">
-        <v>0.597617</v>
+        <v>0.406476</v>
       </c>
       <c r="I17">
-        <v>0.0005724649076086169</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="J17">
-        <v>0.000572464907608617</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N17">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O17">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P17">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q17">
-        <v>0.8120604393251111</v>
+        <v>0.7932219711080001</v>
       </c>
       <c r="R17">
-        <v>7.308543953926</v>
+        <v>7.138997739972</v>
       </c>
       <c r="S17">
-        <v>0.0001491582983854054</v>
+        <v>0.0001934793936466528</v>
       </c>
       <c r="T17">
-        <v>0.0001491582983854055</v>
+        <v>0.0001934793936466528</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1992056666666666</v>
+        <v>0.135492</v>
       </c>
       <c r="H18">
-        <v>0.597617</v>
+        <v>0.406476</v>
       </c>
       <c r="I18">
-        <v>0.0005724649076086169</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="J18">
-        <v>0.000572464907608617</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>12.265592</v>
       </c>
       <c r="O18">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P18">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q18">
-        <v>0.8144584771404443</v>
+        <v>0.5539631970879999</v>
       </c>
       <c r="R18">
-        <v>7.330126294264</v>
+        <v>4.985668773792</v>
       </c>
       <c r="S18">
-        <v>0.0001495987671272348</v>
+        <v>0.0001351203917428486</v>
       </c>
       <c r="T18">
-        <v>0.0001495987671272348</v>
+        <v>0.0001351203917428486</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1992056666666666</v>
+        <v>0.135492</v>
       </c>
       <c r="H19">
-        <v>0.597617</v>
+        <v>0.406476</v>
       </c>
       <c r="I19">
-        <v>0.0005724649076086169</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="J19">
-        <v>0.000572464907608617</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N19">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O19">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P19">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q19">
-        <v>0.5755887709781111</v>
+        <v>1.577591436904</v>
       </c>
       <c r="R19">
-        <v>5.180298938803</v>
+        <v>14.198322932136</v>
       </c>
       <c r="S19">
-        <v>0.000105723462800618</v>
+        <v>0.000384799521132754</v>
       </c>
       <c r="T19">
-        <v>0.000105723462800618</v>
+        <v>0.000384799521132754</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.1992056666666666</v>
+        <v>0.135492</v>
       </c>
       <c r="H20">
-        <v>0.597617</v>
+        <v>0.406476</v>
       </c>
       <c r="I20">
-        <v>0.0005724649076086169</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="J20">
-        <v>0.000572464907608617</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N20">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O20">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P20">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q20">
-        <v>0.02937918372944444</v>
+        <v>0.022293537532</v>
       </c>
       <c r="R20">
-        <v>0.264412653565</v>
+        <v>0.200641837788</v>
       </c>
       <c r="S20">
-        <v>5.396333623489957E-06</v>
+        <v>5.437746659872815E-06</v>
       </c>
       <c r="T20">
-        <v>5.396333623489958E-06</v>
+        <v>5.437746659872815E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.1992056666666666</v>
+        <v>0.135492</v>
       </c>
       <c r="H21">
-        <v>0.597617</v>
+        <v>0.406476</v>
       </c>
       <c r="I21">
-        <v>0.0005724649076086169</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="J21">
-        <v>0.000572464907608617</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N21">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O21">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P21">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q21">
-        <v>0.885175824788222</v>
+        <v>1.636831745948</v>
       </c>
       <c r="R21">
-        <v>7.966582423093999</v>
+        <v>14.731485713532</v>
       </c>
       <c r="S21">
-        <v>0.0001625880456718688</v>
+        <v>0.0003992491701474721</v>
       </c>
       <c r="T21">
-        <v>0.0001625880456718688</v>
+        <v>0.0003992491701474721</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>204.5856933333333</v>
+        <v>47.87999433333334</v>
       </c>
       <c r="H22">
-        <v>613.75708</v>
+        <v>143.639983</v>
       </c>
       <c r="I22">
-        <v>0.5879256950460487</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="J22">
-        <v>0.5879256950460489</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N22">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O22">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P22">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q22">
-        <v>833.9920785782489</v>
+        <v>280.3077929451668</v>
       </c>
       <c r="R22">
-        <v>7505.92870720424</v>
+        <v>2522.770136506501</v>
       </c>
       <c r="S22">
-        <v>0.1531866758723315</v>
+        <v>0.0683715073319348</v>
       </c>
       <c r="T22">
-        <v>0.1531866758723316</v>
+        <v>0.06837150733193478</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>204.5856933333333</v>
+        <v>47.87999433333334</v>
       </c>
       <c r="H23">
-        <v>613.75708</v>
+        <v>143.639983</v>
       </c>
       <c r="I23">
-        <v>0.5879256950460487</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="J23">
-        <v>0.5879256950460489</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>12.265592</v>
       </c>
       <c r="O23">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P23">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q23">
-        <v>836.4548811545955</v>
+        <v>195.7588251516596</v>
       </c>
       <c r="R23">
-        <v>7528.093930391359</v>
+        <v>1761.829426364936</v>
       </c>
       <c r="S23">
-        <v>0.1536390405286523</v>
+        <v>0.04774867586990649</v>
       </c>
       <c r="T23">
-        <v>0.1536390405286524</v>
+        <v>0.04774867586990649</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>204.5856933333333</v>
+        <v>47.87999433333334</v>
       </c>
       <c r="H24">
-        <v>613.75708</v>
+        <v>143.639983</v>
       </c>
       <c r="I24">
-        <v>0.5879256950460487</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="J24">
-        <v>0.5879256950460489</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N24">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O24">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P24">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q24">
-        <v>591.133925835969</v>
+        <v>557.4872985805708</v>
       </c>
       <c r="R24">
-        <v>5320.20533252372</v>
+        <v>5017.385687225137</v>
       </c>
       <c r="S24">
-        <v>0.1085787784082379</v>
+        <v>0.1359799758753701</v>
       </c>
       <c r="T24">
-        <v>0.1085787784082379</v>
+        <v>0.1359799758753701</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>204.5856933333333</v>
+        <v>47.87999433333334</v>
       </c>
       <c r="H25">
-        <v>613.75708</v>
+        <v>143.639983</v>
       </c>
       <c r="I25">
-        <v>0.5879256950460487</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="J25">
-        <v>0.5879256950460489</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N25">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O25">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P25">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q25">
-        <v>30.17263902895556</v>
+        <v>7.878062547619889</v>
       </c>
       <c r="R25">
-        <v>271.5537512606</v>
+        <v>70.902562928579</v>
       </c>
       <c r="S25">
-        <v>0.005542074551860164</v>
+        <v>0.001921584147114314</v>
       </c>
       <c r="T25">
-        <v>0.005542074551860164</v>
+        <v>0.001921584147114314</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>204.5856933333333</v>
+        <v>47.87999433333334</v>
       </c>
       <c r="H26">
-        <v>613.75708</v>
+        <v>143.639983</v>
       </c>
       <c r="I26">
-        <v>0.5879256950460487</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="J26">
-        <v>0.5879256950460489</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N26">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O26">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P26">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q26">
-        <v>909.0821203356177</v>
+        <v>578.4215652629701</v>
       </c>
       <c r="R26">
-        <v>8181.73908302056</v>
+        <v>5205.794087366731</v>
       </c>
       <c r="S26">
-        <v>0.1669791256849668</v>
+        <v>0.1410861748608701</v>
       </c>
       <c r="T26">
-        <v>0.1669791256849669</v>
+        <v>0.14108617486087</v>
       </c>
     </row>
   </sheetData>
